--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_19 21.动态内存管理(2).xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_19 21.动态内存管理(2).xlsx
@@ -342,16 +342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>608133</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>169983</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>85137</xdr:rowOff>
+      <xdr:rowOff>18462</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -368,8 +368,350 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019800" y="20240625"/>
+          <a:off x="6267450" y="20173950"/>
           <a:ext cx="11733333" cy="4704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608484</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>161013</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="25612725"/>
+          <a:ext cx="8923809" cy="7295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522887</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>151893</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2219325" y="33127950"/>
+          <a:ext cx="7904762" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398962</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>171223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="37442775"/>
+          <a:ext cx="8704762" cy="1819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8087</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>132498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="39433500"/>
+          <a:ext cx="11504762" cy="6819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304045</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>18224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2495550" y="47929800"/>
+          <a:ext cx="6038095" cy="6609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>189392</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>37733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="55397400"/>
+          <a:ext cx="8866667" cy="2933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247088</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>122787</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="46682025"/>
+          <a:ext cx="4495238" cy="8304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217969</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>113492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="59312175"/>
+          <a:ext cx="8847619" cy="6466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>503725</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>113839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11591925" y="61064775"/>
+          <a:ext cx="8800000" cy="3685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -670,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="AH141" sqref="AH141"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="V387" sqref="V387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,7 +1042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
